--- a/Windows/student_db/output.xlsx
+++ b/Windows/student_db/output.xlsx
@@ -112,10 +112,10 @@
     <t>TAYLOR_SWIFT_8.png</t>
   </si>
   <si>
+    <t>VIRAJ_9.jpg</t>
+  </si>
+  <si>
     <t>VIRAJ_9.png</t>
-  </si>
-  <si>
-    <t>VIRAJ_9.jpg</t>
   </si>
 </sst>
 </file>
